--- a/wpm.xlsx
+++ b/wpm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\friki\Desktop\WPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E86F75-FD5A-4C3E-A5E5-ABA2D0EBFD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A537793-BDE0-4BB0-AC78-61E5460A2DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>DAYS</t>
   </si>
@@ -34,6 +34,15 @@
   </si>
   <si>
     <t>J1</t>
+  </si>
+  <si>
+    <t>j2</t>
+  </si>
+  <si>
+    <t>j3</t>
+  </si>
+  <si>
+    <t>j4</t>
   </si>
 </sst>
 </file>
@@ -117,13 +126,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -406,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,6 +446,30 @@
         <v>40</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
